--- a/Datasets/Book1.xlsx
+++ b/Datasets/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fathi\Katalon Studio\SWAG LABS Project\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fathi\Desktop\Project Katalon\SWAG LABS Project\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F846FE-3A40-459A-8A04-C6512DD48AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8520A964-3241-448E-8C25-E66F1307C95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6A061BD5-ADA1-4511-9284-2B5C8E591BB7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A061BD5-ADA1-4511-9284-2B5C8E591BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t xml:space="preserve">Username </t>
   </si>
@@ -45,15 +45,6 @@
   </si>
   <si>
     <t>standard_user</t>
-  </si>
-  <si>
-    <t>locked_out_user</t>
-  </si>
-  <si>
-    <t>problem_user</t>
-  </si>
-  <si>
-    <t>performance_glitch_user</t>
   </si>
   <si>
     <t>secret_sauce</t>
@@ -423,55 +414,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE52E2FB-47C4-429E-B55A-8170B831B48B}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -483,29 +457,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AF2123-C08C-4F7C-A37C-70075A91437E}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2">
         <v>16435</v>
